--- a/data_processed/20250815/BTCUSDVOLSURFACE_20250815.xlsx
+++ b/data_processed/20250815/BTCUSDVOLSURFACE_20250815.xlsx
@@ -582,7 +582,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -727,7 +727,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -785,7 +785,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -814,7 +814,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -872,7 +872,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -901,7 +901,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -959,7 +959,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -988,7 +988,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1307,7 +1307,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -1510,7 +1510,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1858,7 +1858,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2165,7 +2165,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2223,7 +2223,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2534,7 +2534,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2592,7 +2592,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7696,7 +7696,7 @@
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7750,7 +7750,7 @@
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7833,7 +7833,7 @@
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7891,7 +7891,7 @@
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8028,7 +8028,7 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8169,7 +8169,7 @@
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8227,7 +8227,7 @@
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8368,7 +8368,7 @@
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8451,7 +8451,7 @@
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8509,7 +8509,7 @@
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8567,7 +8567,7 @@
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8650,7 +8650,7 @@
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8762,7 +8762,7 @@
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -19617,7 +19617,7 @@
       </c>
       <c r="G716" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -19646,7 +19646,7 @@
       </c>
       <c r="G717" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -19704,7 +19704,7 @@
       </c>
       <c r="G719" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -19733,7 +19733,7 @@
       </c>
       <c r="G720" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -41916,7 +41916,7 @@
       </c>
       <c r="G1571" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -41945,7 +41945,7 @@
       </c>
       <c r="G1572" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>

--- a/data_processed/20250815/BTCUSDVOLSURFACE_20250815.xlsx
+++ b/data_processed/20250815/BTCUSDVOLSURFACE_20250815.xlsx
@@ -698,7 +698,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -872,7 +872,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -959,7 +959,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>BF,CS,CA</t>
         </is>
       </c>
     </row>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>BF,CS,CA</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>BF,CS,CA</t>
         </is>
       </c>
     </row>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -1307,7 +1307,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>BF,CS,CA</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>BF,CS,CA</t>
         </is>
       </c>
     </row>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>BF,CS,CA</t>
         </is>
       </c>
     </row>
@@ -1510,7 +1510,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -19646,7 +19646,7 @@
       </c>
       <c r="G717" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -41945,7 +41945,7 @@
       </c>
       <c r="G1572" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
